--- a/Economics/Forecast/Stationaritiy/Percentage Return/unp_rate.xlsx
+++ b/Economics/Forecast/Stationaritiy/Percentage Return/unp_rate.xlsx
@@ -417,13 +417,13 @@
         <v>99</v>
       </c>
       <c r="C2">
-        <v>1.840176214125092</v>
+        <v>0.7411620219542501</v>
       </c>
       <c r="D2">
-        <v>-6.276698524034673</v>
+        <v>-6.677330035789442</v>
       </c>
       <c r="E2">
-        <v>9.957050952284858</v>
+        <v>8.159654079697942</v>
       </c>
       <c r="F2">
         <v>3.448275862068969</v>
@@ -437,13 +437,13 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>-0.1612010018758116</v>
+        <v>-1.478386718800721</v>
       </c>
       <c r="D3">
-        <v>-8.243229772566195</v>
+        <v>-8.878018356542965</v>
       </c>
       <c r="E3">
-        <v>7.920827768814572</v>
+        <v>5.921244918941523</v>
       </c>
       <c r="F3">
         <v>3.333333333333336</v>
@@ -457,13 +457,13 @@
         <v>101</v>
       </c>
       <c r="C4">
-        <v>-0.9744919118154211</v>
+        <v>-5.65466309594103</v>
       </c>
       <c r="D4">
-        <v>-9.045019804454018</v>
+        <v>-13.07517160262989</v>
       </c>
       <c r="E4">
-        <v>7.096035980823175</v>
+        <v>1.765845410747832</v>
       </c>
       <c r="F4">
         <v>-3.225806451612906</v>
@@ -477,13 +477,13 @@
         <v>102</v>
       </c>
       <c r="C5">
-        <v>0.4745872967711494</v>
+        <v>-3.256584256340671</v>
       </c>
       <c r="D5">
-        <v>-7.567960751525368</v>
+        <v>-10.6556139453269</v>
       </c>
       <c r="E5">
-        <v>8.517135345067667</v>
+        <v>4.142445432645558</v>
       </c>
       <c r="F5">
         <v>-3.333333333333336</v>
@@ -497,13 +497,13 @@
         <v>103</v>
       </c>
       <c r="C6">
-        <v>1.120872041764855</v>
+        <v>0.3158585149635753</v>
       </c>
       <c r="D6">
-        <v>-6.916240938781502</v>
+        <v>-7.047176670670571</v>
       </c>
       <c r="E6">
-        <v>9.157985022311212</v>
+        <v>7.678893700597722</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -517,13 +517,13 @@
         <v>104</v>
       </c>
       <c r="C7">
-        <v>0.4825651259846637</v>
+        <v>1.541922637407312</v>
       </c>
       <c r="D7">
-        <v>-7.518743911602991</v>
+        <v>-5.785859999028879</v>
       </c>
       <c r="E7">
-        <v>8.483874163572318</v>
+        <v>8.869705273843502</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -537,13 +537,13 @@
         <v>105</v>
       </c>
       <c r="C8">
-        <v>0.2084820662114607</v>
+        <v>1.758642000772859</v>
       </c>
       <c r="D8">
-        <v>-7.755178634932471</v>
+        <v>-5.539967791624038</v>
       </c>
       <c r="E8">
-        <v>8.172142767355393</v>
+        <v>9.057251793169756</v>
       </c>
       <c r="F8">
         <v>-3.448275862068969</v>
@@ -557,13 +557,13 @@
         <v>106</v>
       </c>
       <c r="C9">
-        <v>1.022342088578945</v>
+        <v>3.395129848912025</v>
       </c>
       <c r="D9">
-        <v>-6.934164339487136</v>
+        <v>-3.935452108876353</v>
       </c>
       <c r="E9">
-        <v>8.978848516645025</v>
+        <v>10.7257118067004</v>
       </c>
       <c r="F9">
         <v>3.571428571428575</v>
@@ -577,13 +577,13 @@
         <v>107</v>
       </c>
       <c r="C10">
-        <v>-0.539910292246387</v>
+        <v>0.9274719592644503</v>
       </c>
       <c r="D10">
-        <v>-8.473628138485338</v>
+        <v>-6.36885135801016</v>
       </c>
       <c r="E10">
-        <v>7.393807553992565</v>
+        <v>8.223795276539059</v>
       </c>
       <c r="F10">
         <v>-3.448275862068969</v>
@@ -597,13 +597,13 @@
         <v>108</v>
       </c>
       <c r="C11">
-        <v>0.7311430951111202</v>
+        <v>0.263092101853013</v>
       </c>
       <c r="D11">
-        <v>-7.184629375159038</v>
+        <v>-7.045723982726788</v>
       </c>
       <c r="E11">
-        <v>8.646915565381278</v>
+        <v>7.571908186432815</v>
       </c>
       <c r="F11">
         <v>3.571428571428575</v>
@@ -617,13 +617,13 @@
         <v>109</v>
       </c>
       <c r="C12">
-        <v>-0.7019525932239492</v>
+        <v>-1.946148631779462</v>
       </c>
       <c r="D12">
-        <v>-8.599198678959493</v>
+        <v>-9.246786846216414</v>
       </c>
       <c r="E12">
-        <v>7.195293492511594</v>
+        <v>5.354489582657491</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -637,13 +637,13 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>-0.2959294415344045</v>
+        <v>-3.889472847731984</v>
       </c>
       <c r="D13">
-        <v>-8.158304104522877</v>
+        <v>-11.16541465625227</v>
       </c>
       <c r="E13">
-        <v>7.566445221454067</v>
+        <v>3.3864689607883</v>
       </c>
       <c r="F13">
         <v>-3.448275862068969</v>
@@ -657,13 +657,13 @@
         <v>111</v>
       </c>
       <c r="C14">
-        <v>0.8561761438848595</v>
+        <v>-1.198212355252578</v>
       </c>
       <c r="D14">
-        <v>-6.992584140518496</v>
+        <v>-8.441731787654694</v>
       </c>
       <c r="E14">
-        <v>8.704936428288216</v>
+        <v>6.045307077149538</v>
       </c>
       <c r="F14">
         <v>-3.571428571428559</v>
@@ -677,13 +677,13 @@
         <v>112</v>
       </c>
       <c r="C15">
-        <v>1.348820663769071</v>
+        <v>1.263474687660217</v>
       </c>
       <c r="D15">
-        <v>-6.507636756719782</v>
+        <v>-5.960996602214737</v>
       </c>
       <c r="E15">
-        <v>9.205278084257923</v>
+        <v>8.487945977535173</v>
       </c>
       <c r="F15">
         <v>3.70370370370369</v>
@@ -697,13 +697,13 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>-0.4563541094929837</v>
+        <v>-0.4373277185558133</v>
       </c>
       <c r="D16">
-        <v>-8.289729724644474</v>
+        <v>-7.643771247584978</v>
       </c>
       <c r="E16">
-        <v>7.377021505658506</v>
+        <v>6.769115810473352</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -717,13 +717,13 @@
         <v>114</v>
       </c>
       <c r="C17">
-        <v>-0.1960710121417688</v>
+        <v>-1.274679102324519</v>
       </c>
       <c r="D17">
-        <v>-7.995466466103546</v>
+        <v>-8.449906216601912</v>
       </c>
       <c r="E17">
-        <v>7.60332444182001</v>
+        <v>5.900548011952875</v>
       </c>
       <c r="F17">
         <v>-3.571428571428559</v>
@@ -737,13 +737,13 @@
         <v>115</v>
       </c>
       <c r="C18">
-        <v>0.9316501798947407</v>
+        <v>1.404193019064806</v>
       </c>
       <c r="D18">
-        <v>-6.858195643356323</v>
+        <v>-5.751700863997627</v>
       </c>
       <c r="E18">
-        <v>8.721496003145804</v>
+        <v>8.560086902127239</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>0.3993003847750713</v>
+        <v>1.548801422789196</v>
       </c>
       <c r="D19">
-        <v>-7.358768824291759</v>
+        <v>-5.580558324367704</v>
       </c>
       <c r="E19">
-        <v>8.157369593841901</v>
+        <v>8.678161169946097</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>0.1715818080899121</v>
+        <v>0.5875070265410964</v>
       </c>
       <c r="D20">
-        <v>-7.553606450794981</v>
+        <v>-6.516683640984809</v>
       </c>
       <c r="E20">
-        <v>7.896770066974805</v>
+        <v>7.691697694067001</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>118</v>
       </c>
       <c r="C21">
-        <v>0.07377399923594447</v>
+        <v>-0.1546390670985507</v>
       </c>
       <c r="D21">
-        <v>-7.618673936053087</v>
+        <v>-7.229441414040072</v>
       </c>
       <c r="E21">
-        <v>7.766221934524976</v>
+        <v>6.920163279842972</v>
       </c>
       <c r="F21">
         <v>-3.703703703703707</v>
@@ -817,13 +817,13 @@
         <v>119</v>
       </c>
       <c r="C22">
-        <v>1.076670850892758</v>
+        <v>0.8071455725235941</v>
       </c>
       <c r="D22">
-        <v>-6.613398938264075</v>
+        <v>-6.266632207886113</v>
       </c>
       <c r="E22">
-        <v>8.766740640049591</v>
+        <v>7.880923352933301</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>120</v>
       </c>
       <c r="C23">
-        <v>0.4565595802283319</v>
+        <v>0.1472794645515559</v>
       </c>
       <c r="D23">
-        <v>-7.203845261837309</v>
+        <v>-6.898460828381009</v>
       </c>
       <c r="E23">
-        <v>8.116964422293973</v>
+        <v>7.19301975748412</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>121</v>
       </c>
       <c r="C24">
-        <v>0.194110130018568</v>
+        <v>-1.640894724138151</v>
       </c>
       <c r="D24">
-        <v>-7.435014732492094</v>
+        <v>-8.657519815166781</v>
       </c>
       <c r="E24">
-        <v>7.82323499252923</v>
+        <v>5.375730366890478</v>
       </c>
       <c r="F24">
         <v>7.692307692307682</v>
@@ -877,13 +877,13 @@
         <v>122</v>
       </c>
       <c r="C25">
-        <v>-2.080008603378515</v>
+        <v>-6.006203314027061</v>
       </c>
       <c r="D25">
-        <v>-9.793175781037874</v>
+        <v>-13.18130605978019</v>
       </c>
       <c r="E25">
-        <v>5.633158574280844</v>
+        <v>1.168899431726069</v>
       </c>
       <c r="F25">
         <v>7.142857142857149</v>
@@ -897,13 +897,13 @@
         <v>123</v>
       </c>
       <c r="C26">
-        <v>-2.579901142870707</v>
+        <v>-6.057465610279662</v>
       </c>
       <c r="D26">
-        <v>-10.42827721353109</v>
+        <v>-13.52097923512827</v>
       </c>
       <c r="E26">
-        <v>5.268474927789675</v>
+        <v>1.40604801456895</v>
       </c>
       <c r="F26">
         <v>-6.666666666666672</v>
